--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ccl25-Ackr2.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.75952369351777</v>
+        <v>5.934604333333334</v>
       </c>
       <c r="H2">
-        <v>5.75952369351777</v>
+        <v>17.803813</v>
       </c>
       <c r="I2">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="J2">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4890471933642</v>
+        <v>11.51723133333333</v>
       </c>
       <c r="N2">
-        <v>11.4890471933642</v>
+        <v>34.551694</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>66.17143952612496</v>
+        <v>68.35021097880245</v>
       </c>
       <c r="R2">
-        <v>66.17143952612496</v>
+        <v>615.151898809222</v>
       </c>
       <c r="S2">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
       <c r="T2">
-        <v>0.3066949414479993</v>
+        <v>0.3081877218757661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.68616430706936</v>
+        <v>7.720664</v>
       </c>
       <c r="H3">
-        <v>7.68616430706936</v>
+        <v>23.161992</v>
       </c>
       <c r="I3">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="J3">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4890471933642</v>
+        <v>11.51723133333333</v>
       </c>
       <c r="N3">
-        <v>11.4890471933642</v>
+        <v>34.551694</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>88.30670445987133</v>
+        <v>88.92067333493867</v>
       </c>
       <c r="R3">
-        <v>88.30670445987133</v>
+        <v>800.286060014448</v>
       </c>
       <c r="S3">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
       <c r="T3">
-        <v>0.4092886560688069</v>
+        <v>0.4009389195777736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.33363606105315</v>
+        <v>5.601191</v>
       </c>
       <c r="H4">
-        <v>5.33363606105315</v>
+        <v>16.803573</v>
       </c>
       <c r="I4">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464604</v>
       </c>
       <c r="J4">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464603</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4890471933642</v>
+        <v>11.51723133333333</v>
       </c>
       <c r="N4">
-        <v>11.4890471933642</v>
+        <v>34.551694</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>61.27839641766879</v>
+        <v>64.51021248918467</v>
       </c>
       <c r="R4">
-        <v>61.27839641766879</v>
+        <v>580.5919124026619</v>
       </c>
       <c r="S4">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464604</v>
       </c>
       <c r="T4">
-        <v>0.2840164024831937</v>
+        <v>0.2908733585464603</v>
       </c>
     </row>
   </sheetData>
